--- a/CP5/Tabelas.xlsx
+++ b/CP5/Tabelas.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="12">
   <si>
     <t>Bubble Sort</t>
   </si>
@@ -53,17 +53,24 @@
     <t>5M</t>
   </si>
   <si>
-    <t>Tamanho/Método</t>
+    <t>Média(s)</t>
   </si>
   <si>
-    <t>0.014</t>
+    <t>n/a</t>
+  </si>
+  <si>
+    <t>Algoritmo</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.000"/>
+    <numFmt numFmtId="165" formatCode="#,##0.000"/>
+  </numFmts>
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -71,16 +78,48 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -103,14 +142,132 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="2" tint="-0.249977111117893"/>
+      </left>
+      <right style="thin">
+        <color theme="2" tint="-0.249977111117893"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -127,6 +284,6146 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pt-BR"/>
+              <a:t>Comparativo de Tempo(s)</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Planilha1!$C$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Bubble Sort</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+            </a:ln>
+            <a:effectLst>
+              <a:glow rad="63500">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="175000"/>
+                  <a:alpha val="25000"/>
+                </a:schemeClr>
+              </a:glow>
+            </a:effectLst>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Planilha1!$B$4:$B$8</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>10K</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100K</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>500K</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1M</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5M</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Planilha1!$C$4:$C$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>2.8860000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>284.00200000000001</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="#,##0.00">
+                  <c:v>7005.9830000000002</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="#,##0.000">
+                  <c:v>11341.106</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-4A4B-4044-BEF2-2458EE7A276A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Planilha1!$D$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Selection Sort</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+            </a:ln>
+            <a:effectLst>
+              <a:glow rad="63500">
+                <a:schemeClr val="accent2">
+                  <a:satMod val="175000"/>
+                  <a:alpha val="25000"/>
+                </a:schemeClr>
+              </a:glow>
+            </a:effectLst>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Planilha1!$B$4:$B$8</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>10K</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100K</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>500K</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1M</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5M</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Planilha1!$D$4:$D$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1.425</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>148.12100000000001</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="#,##0.00">
+                  <c:v>3467.7689999999998</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="#,##0.000">
+                  <c:v>13923.556</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-4A4B-4044-BEF2-2458EE7A276A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Planilha1!$E$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Insertion Sort</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+            </a:ln>
+            <a:effectLst>
+              <a:glow rad="63500">
+                <a:schemeClr val="accent3">
+                  <a:satMod val="175000"/>
+                  <a:alpha val="25000"/>
+                </a:schemeClr>
+              </a:glow>
+            </a:effectLst>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Planilha1!$B$4:$B$8</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>10K</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100K</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>500K</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1M</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5M</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Planilha1!$E$4:$E$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1.24</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>124.78700000000001</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="#,##0.00">
+                  <c:v>3020.0349999999999</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="#,##0.000">
+                  <c:v>11267.665000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-4A4B-4044-BEF2-2458EE7A276A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Planilha1!$F$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Merge Sort</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+            </a:ln>
+            <a:effectLst>
+              <a:glow rad="63500">
+                <a:schemeClr val="accent4">
+                  <a:satMod val="175000"/>
+                  <a:alpha val="25000"/>
+                </a:schemeClr>
+              </a:glow>
+            </a:effectLst>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Planilha1!$B$4:$B$8</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>10K</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100K</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>500K</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1M</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5M</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Planilha1!$F$4:$F$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1.4E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.16700000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.94899999999999995</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.9810000000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>11.340999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-4A4B-4044-BEF2-2458EE7A276A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="315"/>
+        <c:overlap val="-40"/>
+        <c:axId val="2054735951"/>
+        <c:axId val="2054726799"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="2054735951"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:gradFill>
+                <a:gsLst>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="0">
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2054726799"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2054726799"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="15000"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:gradFill>
+                <a:gsLst>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="0">
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2054735951"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-BR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Comparativo</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> de </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Média(s)</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Planilha1!$B$30</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Média(s)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="40000"/>
+                  <a:lumOff val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+            </a:ln>
+            <a:effectLst>
+              <a:glow rad="63500">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="175000"/>
+                  <a:alpha val="25000"/>
+                </a:schemeClr>
+              </a:glow>
+            </a:effectLst>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:miter lim="800000"/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="50800" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:schemeClr val="accent2"/>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-805F-4FBE-8B14-E794ACBEA126}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="accent3">
+                    <a:lumMod val="40000"/>
+                    <a:lumOff val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:miter lim="800000"/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="50800" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:schemeClr val="accent3">
+                    <a:lumMod val="60000"/>
+                    <a:lumOff val="40000"/>
+                  </a:schemeClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000002-805F-4FBE-8B14-E794ACBEA126}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="accent4">
+                    <a:lumMod val="60000"/>
+                    <a:lumOff val="40000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:miter lim="800000"/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="50800" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:schemeClr val="accent4">
+                    <a:lumMod val="60000"/>
+                    <a:lumOff val="40000"/>
+                  </a:schemeClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-805F-4FBE-8B14-E794ACBEA126}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:cat>
+            <c:strRef>
+              <c:f>Planilha1!$C$29:$F$29</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Bubble Sort</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Selection Sort</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Insertion Sort</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Merge Sort</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Planilha1!$C$30:$F$30</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>3726.7954</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3508.1741999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2882.7454000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.8903999999999996</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-805F-4FBE-8B14-E794ACBEA126}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="315"/>
+        <c:overlap val="-40"/>
+        <c:axId val="1905210751"/>
+        <c:axId val="1905212415"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1905210751"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:gradFill>
+                <a:gsLst>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="0">
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1905212415"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1905212415"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:gradFill>
+                <a:gsLst>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="0">
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1905210751"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-BR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Planilha1!$B$12</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Bubble Sort</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+            </a:ln>
+            <a:effectLst>
+              <a:glow rad="63500">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="175000"/>
+                  <a:alpha val="25000"/>
+                </a:schemeClr>
+              </a:glow>
+            </a:effectLst>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Planilha1!$C$11:$G$11</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>10K</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100K</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>500K</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1M</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5M</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Planilha1!$C$12:$G$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>2.8860000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>284.00200000000001</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="#,##0.00">
+                  <c:v>7005.9830000000002</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="#,##0.000">
+                  <c:v>11341.106</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-5D43-46B4-8188-A9844D1B6A82}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="182"/>
+        <c:overlap val="-50"/>
+        <c:axId val="1950824079"/>
+        <c:axId val="1950820751"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1950824079"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:gradFill>
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="10800000" scaled="0"/>
+              </a:gradFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1950820751"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1950820751"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:gradFill>
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="10800000" scaled="0"/>
+              </a:gradFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1950824079"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-BR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Planilha1!$B$16</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Selection Sort</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+            </a:ln>
+            <a:effectLst>
+              <a:glow rad="63500">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="175000"/>
+                  <a:alpha val="25000"/>
+                </a:schemeClr>
+              </a:glow>
+            </a:effectLst>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Planilha1!$C$15:$G$15</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>10K</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100K</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>500K</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1M</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5M</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Planilha1!$C$16:$G$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1.425</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>148.12100000000001</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="#,##0.00">
+                  <c:v>3467.7689999999998</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="#,##0.000">
+                  <c:v>13923.556</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-EC55-49A9-A2C4-0E1D31366B5C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="182"/>
+        <c:overlap val="-50"/>
+        <c:axId val="1939221119"/>
+        <c:axId val="1939221951"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1939221119"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:gradFill>
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="10800000" scaled="0"/>
+              </a:gradFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1939221951"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1939221951"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:gradFill>
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="10800000" scaled="0"/>
+              </a:gradFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1939221119"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-BR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Planilha1!$B$20</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Insertion Sort</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+            </a:ln>
+            <a:effectLst>
+              <a:glow rad="63500">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="175000"/>
+                  <a:alpha val="25000"/>
+                </a:schemeClr>
+              </a:glow>
+            </a:effectLst>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Planilha1!$C$19:$G$19</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>10K</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100K</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>500K</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1M</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5M</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Planilha1!$C$20:$G$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1.24</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>124.78700000000001</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="#,##0.00">
+                  <c:v>3020.0349999999999</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="#,##0.000">
+                  <c:v>11267.665000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-2CB6-4FA6-B1E5-281CCE2D53BE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="182"/>
+        <c:overlap val="-50"/>
+        <c:axId val="1941330415"/>
+        <c:axId val="1941335823"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1941330415"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:gradFill>
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="10800000" scaled="0"/>
+              </a:gradFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1941335823"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1941335823"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:gradFill>
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="10800000" scaled="0"/>
+              </a:gradFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1941330415"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-BR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Planilha1!$B$24</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Merge Sort</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+            </a:ln>
+            <a:effectLst>
+              <a:glow rad="63500">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="175000"/>
+                  <a:alpha val="25000"/>
+                </a:schemeClr>
+              </a:glow>
+            </a:effectLst>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Planilha1!$C$23:$G$23</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>10K</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100K</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>500K</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1M</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5M</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Planilha1!$C$24:$G$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1.4E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.16700000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="#,##0.00">
+                  <c:v>0.94899999999999995</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="#,##0.000">
+                  <c:v>1.9810000000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>11.340999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-3404-44AF-959A-01A619EC813D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="182"/>
+        <c:overlap val="-50"/>
+        <c:axId val="2051303935"/>
+        <c:axId val="2051309343"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="2051303935"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:gradFill>
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="10800000" scaled="0"/>
+              </a:gradFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2051309343"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2051309343"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:gradFill>
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="10800000" scaled="0"/>
+              </a:gradFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2051303935"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-BR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="213">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="15000"/>
+        <a:lumOff val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="22225" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="139700">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="14000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:lumMod val="60000"/>
+          <a:lumOff val="40000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="4"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="50000"/>
+          <a:lumOff val="50000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="75000"/>
+                <a:lumOff val="25000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="65000"/>
+                <a:lumOff val="35000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="75000"/>
+                <a:lumOff val="25000"/>
+                <a:alpha val="25000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="65000"/>
+                <a:lumOff val="35000"/>
+                <a:alpha val="25000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="1" kern="1200" cap="none" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1">
+          <a:lumMod val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="213">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="15000"/>
+        <a:lumOff val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="22225" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="139700">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="14000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:lumMod val="60000"/>
+          <a:lumOff val="40000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="4"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="50000"/>
+          <a:lumOff val="50000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="75000"/>
+                <a:lumOff val="25000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="65000"/>
+                <a:lumOff val="35000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="75000"/>
+                <a:lumOff val="25000"/>
+                <a:alpha val="25000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="65000"/>
+                <a:lumOff val="35000"/>
+                <a:alpha val="25000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="1" kern="1200" cap="none" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1">
+          <a:lumMod val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="339">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="15000"/>
+        <a:lumOff val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="22225" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="139700">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="14000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:lumMod val="60000"/>
+          <a:lumOff val="40000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="4"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="50000"/>
+          <a:lumOff val="50000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="65000"/>
+                <a:lumOff val="35000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="75000"/>
+                <a:lumOff val="25000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="10800000" scaled="0"/>
+        </a:gradFill>
+        <a:round/>
+      </a:ln>
+      <a:effectLst/>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="75000"/>
+                <a:lumOff val="25000"/>
+                <a:alpha val="25000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="65000"/>
+                <a:lumOff val="35000"/>
+                <a:alpha val="25000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="1" kern="1200" cap="none" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1">
+          <a:lumMod val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="339">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="15000"/>
+        <a:lumOff val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="22225" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="139700">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="14000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:lumMod val="60000"/>
+          <a:lumOff val="40000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="4"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="50000"/>
+          <a:lumOff val="50000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="65000"/>
+                <a:lumOff val="35000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="75000"/>
+                <a:lumOff val="25000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="10800000" scaled="0"/>
+        </a:gradFill>
+        <a:round/>
+      </a:ln>
+      <a:effectLst/>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="75000"/>
+                <a:lumOff val="25000"/>
+                <a:alpha val="25000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="65000"/>
+                <a:lumOff val="35000"/>
+                <a:alpha val="25000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="1" kern="1200" cap="none" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1">
+          <a:lumMod val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="339">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="15000"/>
+        <a:lumOff val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="22225" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="139700">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="14000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:lumMod val="60000"/>
+          <a:lumOff val="40000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="4"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="50000"/>
+          <a:lumOff val="50000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="65000"/>
+                <a:lumOff val="35000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="75000"/>
+                <a:lumOff val="25000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="10800000" scaled="0"/>
+        </a:gradFill>
+        <a:round/>
+      </a:ln>
+      <a:effectLst/>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="75000"/>
+                <a:lumOff val="25000"/>
+                <a:alpha val="25000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="65000"/>
+                <a:lumOff val="35000"/>
+                <a:alpha val="25000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="1" kern="1200" cap="none" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1">
+          <a:lumMod val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="339">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="15000"/>
+        <a:lumOff val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="22225" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="139700">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="14000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:lumMod val="60000"/>
+          <a:lumOff val="40000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="4"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="50000"/>
+          <a:lumOff val="50000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="65000"/>
+                <a:lumOff val="35000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="75000"/>
+                <a:lumOff val="25000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="10800000" scaled="0"/>
+        </a:gradFill>
+        <a:round/>
+      </a:ln>
+      <a:effectLst/>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="75000"/>
+                <a:lumOff val="25000"/>
+                <a:alpha val="25000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="65000"/>
+                <a:lumOff val="35000"/>
+                <a:alpha val="25000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="1" kern="1200" cap="none" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1">
+          <a:lumMod val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Gráfico 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>14287</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>500062</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Gráfico 4"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>719137</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>576262</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Gráfico 5"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>738187</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>595312</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="Gráfico 7"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>738187</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>595312</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="9" name="Gráfico 8"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>14287</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>500062</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="10" name="Gráfico 9"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -392,87 +6689,525 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:F8"/>
+  <dimension ref="B3:R30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="15"/>
+    <col min="2" max="2" width="17.28515625" style="15" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.85546875" style="15" customWidth="1"/>
+    <col min="4" max="4" width="13.42578125" style="15" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.140625" style="15" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.7109375" style="15" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.140625" style="15"/>
+    <col min="8" max="9" width="11.28515625" style="15" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="9.140625" style="15"/>
+    <col min="12" max="12" width="13.42578125" style="15" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="9.140625" style="15"/>
+    <col min="15" max="15" width="14.28515625" style="15" customWidth="1"/>
+    <col min="16" max="17" width="9.140625" style="15"/>
+    <col min="18" max="18" width="10.7109375" style="15" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="15"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="1" t="s">
+    <row r="3" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B3" s="5"/>
+      <c r="C3" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="F3" s="4" t="s">
         <v>3</v>
       </c>
+      <c r="H3"/>
+      <c r="I3"/>
+      <c r="J3"/>
+      <c r="K3"/>
+      <c r="L3"/>
+      <c r="M3"/>
+      <c r="N3"/>
+      <c r="O3"/>
+      <c r="P3"/>
+      <c r="Q3"/>
+      <c r="R3"/>
     </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B4" s="1" t="s">
+    <row r="4" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1" t="s">
-        <v>10</v>
-      </c>
+      <c r="C4" s="8">
+        <v>2.8860000000000001</v>
+      </c>
+      <c r="D4" s="7">
+        <v>1.425</v>
+      </c>
+      <c r="E4" s="8">
+        <v>1.24</v>
+      </c>
+      <c r="F4" s="8">
+        <v>1.4E-2</v>
+      </c>
+      <c r="H4"/>
+      <c r="I4"/>
+      <c r="J4"/>
+      <c r="K4"/>
+      <c r="L4"/>
+      <c r="M4"/>
+      <c r="N4"/>
+      <c r="O4"/>
+      <c r="P4"/>
+      <c r="Q4"/>
+      <c r="R4"/>
     </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
+      <c r="C5" s="12">
+        <v>284.00200000000001</v>
+      </c>
+      <c r="D5" s="13">
+        <v>148.12100000000001</v>
+      </c>
+      <c r="E5" s="13">
+        <v>124.78700000000001</v>
+      </c>
+      <c r="F5" s="13">
+        <v>0.16700000000000001</v>
+      </c>
+      <c r="H5"/>
+      <c r="I5"/>
+      <c r="J5"/>
+      <c r="K5"/>
+      <c r="L5"/>
+      <c r="M5"/>
+      <c r="N5"/>
+      <c r="O5"/>
+      <c r="P5"/>
+      <c r="Q5"/>
+      <c r="R5"/>
     </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B6" s="1" t="s">
+    <row r="6" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B6" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
+      <c r="C6" s="11">
+        <v>7005.9830000000002</v>
+      </c>
+      <c r="D6" s="9">
+        <v>3467.7689999999998</v>
+      </c>
+      <c r="E6" s="11">
+        <v>3020.0349999999999</v>
+      </c>
+      <c r="F6" s="8">
+        <v>0.94899999999999995</v>
+      </c>
+      <c r="H6"/>
+      <c r="I6"/>
+      <c r="J6"/>
+      <c r="K6"/>
+      <c r="L6"/>
+      <c r="M6"/>
+      <c r="N6"/>
+      <c r="O6"/>
+      <c r="P6"/>
+      <c r="Q6"/>
+      <c r="R6"/>
     </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
+      <c r="C7" s="14">
+        <v>11341.106</v>
+      </c>
+      <c r="D7" s="14">
+        <v>13923.556</v>
+      </c>
+      <c r="E7" s="14">
+        <v>11267.665000000001</v>
+      </c>
+      <c r="F7" s="13">
+        <v>1.9810000000000001</v>
+      </c>
+      <c r="H7"/>
+      <c r="I7"/>
+      <c r="J7"/>
+      <c r="K7"/>
+      <c r="L7"/>
+      <c r="M7"/>
+      <c r="N7"/>
+      <c r="O7"/>
+      <c r="P7"/>
+      <c r="Q7"/>
+      <c r="R7"/>
     </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B8" s="1" t="s">
+    <row r="8" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B8" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
+      <c r="C8" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="F8" s="10">
+        <v>11.340999999999999</v>
+      </c>
+      <c r="H8"/>
+      <c r="I8"/>
+      <c r="J8"/>
+      <c r="K8"/>
+      <c r="L8"/>
+      <c r="M8"/>
+      <c r="N8"/>
+      <c r="O8"/>
+      <c r="P8"/>
+      <c r="Q8"/>
+      <c r="R8"/>
+    </row>
+    <row r="9" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B9" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="16">
+        <f>SUM(C4:C8)/5</f>
+        <v>3726.7954</v>
+      </c>
+      <c r="D9" s="16">
+        <f t="shared" ref="D9:F9" si="0">SUM(D4:D8)/5</f>
+        <v>3508.1741999999999</v>
+      </c>
+      <c r="E9" s="16">
+        <f>SUM(E4:E8)/5</f>
+        <v>2882.7454000000002</v>
+      </c>
+      <c r="F9" s="16">
+        <f t="shared" si="0"/>
+        <v>2.8903999999999996</v>
+      </c>
+      <c r="H9"/>
+      <c r="I9"/>
+      <c r="J9"/>
+      <c r="K9"/>
+      <c r="L9"/>
+      <c r="M9"/>
+      <c r="N9"/>
+      <c r="O9"/>
+      <c r="P9"/>
+      <c r="Q9"/>
+      <c r="R9"/>
+    </row>
+    <row r="10" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B10" s="20"/>
+      <c r="C10" s="21"/>
+      <c r="D10" s="21"/>
+      <c r="E10" s="22"/>
+      <c r="F10" s="21"/>
+    </row>
+    <row r="11" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B11" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="D11" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="E11" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="F11" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="G11" s="17" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B12" s="18" t="str">
+        <f>C3</f>
+        <v>Bubble Sort</v>
+      </c>
+      <c r="C12" s="23">
+        <f>C4</f>
+        <v>2.8860000000000001</v>
+      </c>
+      <c r="D12" s="18">
+        <f>C5</f>
+        <v>284.00200000000001</v>
+      </c>
+      <c r="E12" s="2">
+        <f>C6</f>
+        <v>7005.9830000000002</v>
+      </c>
+      <c r="F12" s="25">
+        <f>C7</f>
+        <v>11341.106</v>
+      </c>
+      <c r="G12" s="19" t="str">
+        <f>C8</f>
+        <v>n/a</v>
+      </c>
+    </row>
+    <row r="13" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B13" s="26" t="str">
+        <f>B9</f>
+        <v>Média(s)</v>
+      </c>
+      <c r="C13" s="26"/>
+      <c r="D13" s="26"/>
+      <c r="E13" s="27">
+        <f>C9</f>
+        <v>3726.7954</v>
+      </c>
+      <c r="F13" s="26"/>
+      <c r="G13" s="26"/>
+    </row>
+    <row r="15" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B15" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="D15" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="E15" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="F15" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="G15" s="17" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B16" s="18" t="str">
+        <f>D3</f>
+        <v>Selection Sort</v>
+      </c>
+      <c r="C16" s="23">
+        <f>D4</f>
+        <v>1.425</v>
+      </c>
+      <c r="D16" s="18">
+        <f>D5</f>
+        <v>148.12100000000001</v>
+      </c>
+      <c r="E16" s="2">
+        <f>D6</f>
+        <v>3467.7689999999998</v>
+      </c>
+      <c r="F16" s="25">
+        <f>D7</f>
+        <v>13923.556</v>
+      </c>
+      <c r="G16" s="19" t="str">
+        <f>D8</f>
+        <v>n/a</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B17" s="26" t="str">
+        <f>B9</f>
+        <v>Média(s)</v>
+      </c>
+      <c r="C17" s="26"/>
+      <c r="D17" s="26"/>
+      <c r="E17" s="27">
+        <f>D9</f>
+        <v>3508.1741999999999</v>
+      </c>
+      <c r="F17" s="26"/>
+      <c r="G17" s="26"/>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B19" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="C19" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="D19" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="E19" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="F19" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="G19" s="17" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B20" s="18" t="str">
+        <f>E3</f>
+        <v>Insertion Sort</v>
+      </c>
+      <c r="C20" s="23">
+        <f>E4</f>
+        <v>1.24</v>
+      </c>
+      <c r="D20" s="18">
+        <f>E5</f>
+        <v>124.78700000000001</v>
+      </c>
+      <c r="E20" s="2">
+        <f>E6</f>
+        <v>3020.0349999999999</v>
+      </c>
+      <c r="F20" s="25">
+        <f>E7</f>
+        <v>11267.665000000001</v>
+      </c>
+      <c r="G20" s="19" t="str">
+        <f>E8</f>
+        <v>n/a</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B21" s="26" t="str">
+        <f>B17</f>
+        <v>Média(s)</v>
+      </c>
+      <c r="C21" s="26"/>
+      <c r="D21" s="26"/>
+      <c r="E21" s="27">
+        <f>E9</f>
+        <v>2882.7454000000002</v>
+      </c>
+      <c r="F21" s="26"/>
+      <c r="G21" s="26"/>
+    </row>
+    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B23" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="C23" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="D23" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="E23" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="F23" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="G23" s="17" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B24" s="18" t="str">
+        <f>F3</f>
+        <v>Merge Sort</v>
+      </c>
+      <c r="C24" s="23">
+        <f>F4</f>
+        <v>1.4E-2</v>
+      </c>
+      <c r="D24" s="18">
+        <f>F5</f>
+        <v>0.16700000000000001</v>
+      </c>
+      <c r="E24" s="2">
+        <f>F6</f>
+        <v>0.94899999999999995</v>
+      </c>
+      <c r="F24" s="25">
+        <f>F7</f>
+        <v>1.9810000000000001</v>
+      </c>
+      <c r="G24" s="19">
+        <f>F8</f>
+        <v>11.340999999999999</v>
+      </c>
+    </row>
+    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B25" s="26" t="str">
+        <f>B21</f>
+        <v>Média(s)</v>
+      </c>
+      <c r="C25" s="26"/>
+      <c r="D25" s="26"/>
+      <c r="E25" s="27">
+        <f>F9</f>
+        <v>2.8903999999999996</v>
+      </c>
+      <c r="F25" s="26"/>
+      <c r="G25" s="26"/>
+    </row>
+    <row r="29" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B29" s="28"/>
+      <c r="C29" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="F29" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B30" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C30" s="16">
+        <f>C9</f>
+        <v>3726.7954</v>
+      </c>
+      <c r="D30" s="16">
+        <f>D9</f>
+        <v>3508.1741999999999</v>
+      </c>
+      <c r="E30" s="16">
+        <f>E9</f>
+        <v>2882.7454000000002</v>
+      </c>
+      <c r="F30" s="16">
+        <f>F9</f>
+        <v>2.8903999999999996</v>
+      </c>
     </row>
   </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="E25:G25"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="E13:G13"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="E17:G17"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="E21:G21"/>
+  </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>